--- a/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>177168</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>155606</v>
+        <v>157929</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>198207</v>
+        <v>198635</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3707705610478965</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3256473352445008</v>
+        <v>0.3305072038059787</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4148010759505892</v>
+        <v>0.4156955547285432</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>192</v>
@@ -765,19 +765,19 @@
         <v>192519</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>171740</v>
+        <v>170890</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216092</v>
+        <v>216170</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3577720537932317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.319158210783405</v>
+        <v>0.3175787575834718</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4015796274781941</v>
+        <v>0.4017244787174539</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>366</v>
@@ -786,19 +786,19 @@
         <v>369686</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>340385</v>
+        <v>338762</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>400346</v>
+        <v>400775</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3638857667798343</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3350442542014367</v>
+        <v>0.3334464047630067</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3940641657110017</v>
+        <v>0.394486544418645</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>300669</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>279630</v>
+        <v>279202</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>322231</v>
+        <v>319908</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6292294389521036</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5851989240494108</v>
+        <v>0.5843044452714568</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6743526647554992</v>
+        <v>0.6694927961940214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>354</v>
@@ -836,19 +836,19 @@
         <v>345585</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>322012</v>
+        <v>321934</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>366364</v>
+        <v>367214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6422279462067683</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5984203725218057</v>
+        <v>0.5982755212825461</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6808417892165947</v>
+        <v>0.6824212424165286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>650</v>
@@ -857,19 +857,19 @@
         <v>646255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>615595</v>
+        <v>615166</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>675556</v>
+        <v>677179</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6361142332201657</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6059358342889982</v>
+        <v>0.6055134555813549</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6649557457985633</v>
+        <v>0.6665535952369933</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>216340</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>192242</v>
+        <v>192298</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>243574</v>
+        <v>245513</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2995871691552532</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2662158322125215</v>
+        <v>0.2662930232779882</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3373002279417157</v>
+        <v>0.33998474294838</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>247</v>
@@ -982,19 +982,19 @@
         <v>263570</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235806</v>
+        <v>237516</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>291461</v>
+        <v>290739</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.327730904506677</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2932086449142247</v>
+        <v>0.2953350957004323</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3624116263215871</v>
+        <v>0.3615141386060389</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>449</v>
@@ -1003,19 +1003,19 @@
         <v>479910</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>442377</v>
+        <v>440836</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>514409</v>
+        <v>516808</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3144159241227107</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2898260918971575</v>
+        <v>0.2888165787379143</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3370183288752119</v>
+        <v>0.3385899001465706</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>505788</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478554</v>
+        <v>476615</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>529886</v>
+        <v>529830</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7004128308447467</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.662699772058284</v>
+        <v>0.66001525705162</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7337841677874782</v>
+        <v>0.7337069767220118</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>509</v>
@@ -1053,19 +1053,19 @@
         <v>540656</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>512765</v>
+        <v>513487</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>568420</v>
+        <v>566710</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.672269095493323</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6375883736784133</v>
+        <v>0.6384858613939612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7067913550857753</v>
+        <v>0.7046649042995679</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>975</v>
@@ -1074,19 +1074,19 @@
         <v>1046444</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1011945</v>
+        <v>1009546</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1083977</v>
+        <v>1085518</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6855840758772893</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6629816711247881</v>
+        <v>0.6614100998534294</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7101739081028425</v>
+        <v>0.7111834212620858</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>192948</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171461</v>
+        <v>168772</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217936</v>
+        <v>215236</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3546518798653914</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.315156956116757</v>
+        <v>0.310215147854065</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4005820278866956</v>
+        <v>0.3956200398237359</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>193</v>
@@ -1199,19 +1199,19 @@
         <v>189795</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>168757</v>
+        <v>169181</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>212368</v>
+        <v>213245</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3246524141272286</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2886672772962025</v>
+        <v>0.289391102769043</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3632649028605109</v>
+        <v>0.3647653839626311</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>375</v>
@@ -1220,19 +1220,19 @@
         <v>382742</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>347952</v>
+        <v>350946</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>412651</v>
+        <v>414517</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3391131025472968</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3082885680164429</v>
+        <v>0.3109413567274615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3656126221203727</v>
+        <v>0.3672657665488069</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>351100</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326112</v>
+        <v>328812</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>372587</v>
+        <v>375276</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6453481201346086</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5994179721133044</v>
+        <v>0.6043799601762639</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.684843043883243</v>
+        <v>0.689784852145935</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>403</v>
@@ -1270,19 +1270,19 @@
         <v>394814</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>372241</v>
+        <v>371364</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>415852</v>
+        <v>415428</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6753475858727714</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6367350971394889</v>
+        <v>0.6352346160373689</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7113327227037974</v>
+        <v>0.7106088972309571</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>735</v>
@@ -1291,19 +1291,19 @@
         <v>745915</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>716006</v>
+        <v>714140</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>780705</v>
+        <v>777711</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6608868974527032</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6343873778796274</v>
+        <v>0.632734233451193</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6917114319835571</v>
+        <v>0.6890586432725383</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>198484</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>175307</v>
+        <v>175468</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>222726</v>
+        <v>222880</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2796778506781332</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2470193162312689</v>
+        <v>0.2472460732860665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3138365536352508</v>
+        <v>0.3140530849642899</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>224</v>
@@ -1416,19 +1416,19 @@
         <v>232921</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>206900</v>
+        <v>206259</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>258733</v>
+        <v>260000</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2861446705048671</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2541777491580086</v>
+        <v>0.253390444727649</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3178541861339488</v>
+        <v>0.3194111677373329</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>434</v>
@@ -1437,19 +1437,19 @@
         <v>431405</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>397374</v>
+        <v>398414</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>464193</v>
+        <v>468432</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2831326180162551</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.26079788953741</v>
+        <v>0.2614803419871718</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.304651044388684</v>
+        <v>0.3074333995218138</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>511204</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>486962</v>
+        <v>486808</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>534381</v>
+        <v>534220</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7203221493218668</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6861634463647492</v>
+        <v>0.6859469150357101</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7529806837687311</v>
+        <v>0.7527539267139334</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>557</v>
@@ -1487,19 +1487,19 @@
         <v>581077</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>555265</v>
+        <v>553998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>607098</v>
+        <v>607739</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7138553294951329</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6821458138660512</v>
+        <v>0.6805888322626671</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7458222508419914</v>
+        <v>0.746609555272351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1101</v>
@@ -1508,19 +1508,19 @@
         <v>1092281</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1059493</v>
+        <v>1055254</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1126312</v>
+        <v>1125272</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7168673819837449</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.695348955611316</v>
+        <v>0.6925666004781864</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7392021104625904</v>
+        <v>0.7385196580128282</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>784940</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>740164</v>
+        <v>740086</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>833938</v>
+        <v>831913</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3199003733839782</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3016519105184662</v>
+        <v>0.3016202138909649</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3398696292108713</v>
+        <v>0.3390441684535774</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>856</v>
@@ -1633,19 +1633,19 @@
         <v>878804</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>831480</v>
+        <v>831543</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>930805</v>
+        <v>931047</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3206218060028286</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3033560602226798</v>
+        <v>0.3033789484378354</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3395936139880668</v>
+        <v>0.3396819731149724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1624</v>
@@ -1654,19 +1654,19 @@
         <v>1663744</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1592023</v>
+        <v>1597528</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1734426</v>
+        <v>1730592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3202810353942074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.306474253072193</v>
+        <v>0.3075339553795495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3338877487156818</v>
+        <v>0.3331496391303114</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>1668761</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1619763</v>
+        <v>1621788</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1713537</v>
+        <v>1713615</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6800996266160219</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6601303707891288</v>
+        <v>0.6609558315464227</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6983480894815338</v>
+        <v>0.6983797861090353</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1823</v>
@@ -1704,19 +1704,19 @@
         <v>1862133</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1810132</v>
+        <v>1809890</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1909457</v>
+        <v>1909394</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6793781939971715</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6604063860119335</v>
+        <v>0.6603180268850276</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6966439397773204</v>
+        <v>0.6966210515621647</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3461</v>
@@ -1725,19 +1725,19 @@
         <v>3530894</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3460212</v>
+        <v>3464046</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3602615</v>
+        <v>3597110</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6797189646057926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6661122512843182</v>
+        <v>0.6668503608696886</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.693525746927807</v>
+        <v>0.6924660446204505</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>168793</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>147479</v>
+        <v>145285</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>193258</v>
+        <v>193502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2785582791253784</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2433841642546798</v>
+        <v>0.2397633151569247</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3189339343692607</v>
+        <v>0.3193356021922683</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>162</v>
@@ -2090,19 +2090,19 @@
         <v>171949</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149903</v>
+        <v>150202</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>196223</v>
+        <v>196077</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2704441287599754</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.235771006099916</v>
+        <v>0.2362410593223308</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3086231455482232</v>
+        <v>0.3083929087986502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>325</v>
@@ -2111,19 +2111,19 @@
         <v>340741</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>308259</v>
+        <v>308380</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>374682</v>
+        <v>377450</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2744036769760897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2482449977330209</v>
+        <v>0.2483425549372999</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3017363593624768</v>
+        <v>0.3039656507454095</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>437158</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>412693</v>
+        <v>412449</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>458472</v>
+        <v>460666</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7214417208746216</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6810660656307383</v>
+        <v>0.6806643978077317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7566158357453197</v>
+        <v>0.7602366848430753</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>430</v>
@@ -2161,19 +2161,19 @@
         <v>463852</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>439578</v>
+        <v>439724</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>485898</v>
+        <v>485599</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7295558712400246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6913768544517769</v>
+        <v>0.6916070912013499</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7642289939000846</v>
+        <v>0.7637589406776694</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>848</v>
@@ -2182,19 +2182,19 @@
         <v>901011</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>867070</v>
+        <v>864302</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>933493</v>
+        <v>933372</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7255963230239103</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6982636406375233</v>
+        <v>0.6960343492545905</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7517550022669791</v>
+        <v>0.7516574450627003</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>275771</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>246233</v>
+        <v>249102</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>305061</v>
+        <v>305883</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3184140703903657</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2843084876065473</v>
+        <v>0.2876211643471966</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3522326365362996</v>
+        <v>0.3531817038537132</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>250</v>
@@ -2307,19 +2307,19 @@
         <v>270686</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>241506</v>
+        <v>243776</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>296757</v>
+        <v>298417</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3014391068512163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2689440192792762</v>
+        <v>0.2714713105423492</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3304712711700982</v>
+        <v>0.332319977130654</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>501</v>
@@ -2328,19 +2328,19 @@
         <v>546458</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>505000</v>
+        <v>504569</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>585565</v>
+        <v>592533</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3097730948230424</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2862719555314531</v>
+        <v>0.2860274391058439</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3319420730615277</v>
+        <v>0.3358919344533569</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>590307</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>561017</v>
+        <v>560195</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>619845</v>
+        <v>616976</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6815859296096343</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6477673634637018</v>
+        <v>0.6468182961462862</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7156915123934529</v>
+        <v>0.7123788356528032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>571</v>
@@ -2378,19 +2378,19 @@
         <v>627294</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>601223</v>
+        <v>599563</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>656474</v>
+        <v>654204</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6985608931487837</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6695287288299021</v>
+        <v>0.667680022869346</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.731055980720724</v>
+        <v>0.7285286894576514</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1118</v>
@@ -2399,19 +2399,19 @@
         <v>1217600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1178493</v>
+        <v>1171525</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1259058</v>
+        <v>1259489</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6902269051769576</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6680579269384724</v>
+        <v>0.6641080655466431</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7137280444685474</v>
+        <v>0.7139725608941565</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>195246</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171737</v>
+        <v>172592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>221865</v>
+        <v>221151</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3074351188634041</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2704178938736333</v>
+        <v>0.2717642571284518</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3493503760452463</v>
+        <v>0.3482247572207561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>190</v>
@@ -2524,19 +2524,19 @@
         <v>205821</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182491</v>
+        <v>179369</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>232753</v>
+        <v>229893</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3037947255729262</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2693584782380903</v>
+        <v>0.2647504055014033</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.343546208899137</v>
+        <v>0.3393255447467294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>372</v>
@@ -2545,19 +2545,19 @@
         <v>401067</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>368050</v>
+        <v>369275</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>435570</v>
+        <v>436778</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3055560952435215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2804021107895375</v>
+        <v>0.2813351521877348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3318421929476557</v>
+        <v>0.3327623915224123</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>439834</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>413215</v>
+        <v>413929</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463343</v>
+        <v>462488</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6925648811365959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6506496239547538</v>
+        <v>0.6517752427792439</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7295821061263668</v>
+        <v>0.7282357428715482</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>424</v>
@@ -2595,19 +2595,19 @@
         <v>471680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>444748</v>
+        <v>447608</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>495010</v>
+        <v>498132</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6962052744270738</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6564537911008631</v>
+        <v>0.6606744552532705</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7306415217619098</v>
+        <v>0.7352495944985966</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>823</v>
@@ -2616,19 +2616,19 @@
         <v>911514</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>877011</v>
+        <v>875803</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>944531</v>
+        <v>943306</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6944439047564784</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6681578070523443</v>
+        <v>0.6672376084775877</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7195978892104624</v>
+        <v>0.7186648478122651</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>234757</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>210662</v>
+        <v>208849</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>261014</v>
+        <v>261331</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2917094797412246</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2617689580038636</v>
+        <v>0.2595165662918913</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3243365836729636</v>
+        <v>0.3247309368890253</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>253</v>
@@ -2741,19 +2741,19 @@
         <v>262261</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>236473</v>
+        <v>235407</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>289046</v>
+        <v>288892</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2810336949591815</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2533997969174107</v>
+        <v>0.2522572724993419</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3097355919029458</v>
+        <v>0.3095707246189368</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>485</v>
@@ -2762,19 +2762,19 @@
         <v>497018</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>462080</v>
+        <v>455063</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>538945</v>
+        <v>538197</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2859771091095069</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2658743891645258</v>
+        <v>0.2618369760502196</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3101010970900649</v>
+        <v>0.3096709908415164</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>570006</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>543749</v>
+        <v>543432</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>594101</v>
+        <v>595914</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7082905202587754</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6756634163270356</v>
+        <v>0.6752690631109748</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7382310419961363</v>
+        <v>0.7404834337081088</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>634</v>
@@ -2812,19 +2812,19 @@
         <v>670940</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>644155</v>
+        <v>644309</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>696728</v>
+        <v>697794</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7189663050408185</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6902644080970542</v>
+        <v>0.6904292753810632</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7466002030825893</v>
+        <v>0.7477427275006581</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1175</v>
@@ -2833,19 +2833,19 @@
         <v>1240946</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1199019</v>
+        <v>1199767</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1275884</v>
+        <v>1282901</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7140228908904931</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6898989029099351</v>
+        <v>0.6903290091584836</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.734125610835474</v>
+        <v>0.7381630239497803</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>874567</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>829226</v>
+        <v>825033</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>925363</v>
+        <v>923011</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3003452655274862</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2847743930207224</v>
+        <v>0.2833342031761531</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3177897978734626</v>
+        <v>0.3169821146877057</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>855</v>
@@ -2958,19 +2958,19 @@
         <v>910717</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>860952</v>
+        <v>862702</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>964245</v>
+        <v>962889</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2896237918187499</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2737977433923122</v>
+        <v>0.2743542909240912</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3066466611192507</v>
+        <v>0.3062154240053243</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1683</v>
@@ -2979,19 +2979,19 @@
         <v>1785284</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1717750</v>
+        <v>1709948</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1858370</v>
+        <v>1857721</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2947786338028714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2836277408435715</v>
+        <v>0.2823394193310304</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3068461993291364</v>
+        <v>0.3067390431260946</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>2037304</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1986508</v>
+        <v>1988860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2082645</v>
+        <v>2086838</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6996547344725138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6822102021265374</v>
+        <v>0.6830178853122945</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7152256069792778</v>
+        <v>0.7166657968238469</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2059</v>
@@ -3029,19 +3029,19 @@
         <v>2233766</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2180238</v>
+        <v>2181594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2283531</v>
+        <v>2281781</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7103762081812501</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6933533388807487</v>
+        <v>0.6937845759946754</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7262022566076876</v>
+        <v>0.7256457090759086</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3964</v>
@@ -3050,19 +3050,19 @@
         <v>4271071</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4197985</v>
+        <v>4198634</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4338605</v>
+        <v>4346407</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7052213661971286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6931538006708637</v>
+        <v>0.6932609568739055</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7163722591564285</v>
+        <v>0.7176605806689696</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>156827</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>136623</v>
+        <v>136263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179382</v>
+        <v>180197</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2987224694984602</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2602376308146714</v>
+        <v>0.2595524937872964</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.341683792922478</v>
+        <v>0.3432364286299617</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>143</v>
@@ -3415,19 +3415,19 @@
         <v>141295</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>123564</v>
+        <v>120160</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>162998</v>
+        <v>160926</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2595607028070084</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2269890016619629</v>
+        <v>0.2207351334517256</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2994293586786435</v>
+        <v>0.2956224879348632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>293</v>
@@ -3436,19 +3436,19 @@
         <v>298122</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>270410</v>
+        <v>268729</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>327663</v>
+        <v>330363</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2787869079400916</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2528718769240986</v>
+        <v>0.2512995186664759</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3064111979781989</v>
+        <v>0.3089363027023918</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>368166</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>345611</v>
+        <v>344796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>388370</v>
+        <v>388730</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7012775305015398</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.658316207077522</v>
+        <v>0.6567635713700384</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7397623691853286</v>
+        <v>0.7404475062127035</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>401</v>
@@ -3486,19 +3486,19 @@
         <v>403068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>381365</v>
+        <v>383437</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>420799</v>
+        <v>424203</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7404392971929916</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7005706413213563</v>
+        <v>0.7043775120651369</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7730109983380369</v>
+        <v>0.7792648665482744</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>758</v>
@@ -3507,19 +3507,19 @@
         <v>771234</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>741693</v>
+        <v>738993</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>798946</v>
+        <v>800627</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7212130920599084</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6935888020218012</v>
+        <v>0.6910636972976082</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7471281230759014</v>
+        <v>0.748700481333524</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>213721</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188658</v>
+        <v>188972</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>239811</v>
+        <v>240572</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2618020840972435</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2311003933061473</v>
+        <v>0.2314849607800536</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2937609525639289</v>
+        <v>0.294693880931622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>225</v>
@@ -3632,19 +3632,19 @@
         <v>229863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>204351</v>
+        <v>204921</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>255638</v>
+        <v>258137</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2653168568171088</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2358700986552174</v>
+        <v>0.2365272461581478</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2950667165777515</v>
+        <v>0.2979513070937291</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>424</v>
@@ -3653,19 +3653,19 @@
         <v>443584</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>406504</v>
+        <v>408345</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>480591</v>
+        <v>477674</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2636117179457333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2415758681943733</v>
+        <v>0.2426697709965737</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2856035763356454</v>
+        <v>0.2838702007277904</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>602625</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>576535</v>
+        <v>575774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>627688</v>
+        <v>627374</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7381979159027565</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7062390474360711</v>
+        <v>0.705306119068378</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7688996066938528</v>
+        <v>0.7685150392199463</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>593</v>
@@ -3703,19 +3703,19 @@
         <v>636510</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>610735</v>
+        <v>608236</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>662022</v>
+        <v>661452</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7346831431828912</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7049332834222486</v>
+        <v>0.7020486929062709</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7641299013447826</v>
+        <v>0.7634727538418522</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1148</v>
@@ -3724,19 +3724,19 @@
         <v>1239135</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1202128</v>
+        <v>1205045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1276215</v>
+        <v>1274374</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7363882820542668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7143964236643545</v>
+        <v>0.7161297992722095</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7584241318056265</v>
+        <v>0.7573302290034262</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>183383</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>160319</v>
+        <v>160286</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>206225</v>
+        <v>206142</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3332060673864882</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.291298557406741</v>
+        <v>0.2912380161265048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3747096932660515</v>
+        <v>0.3745589151001797</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>177</v>
@@ -3849,19 +3849,19 @@
         <v>185198</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>165384</v>
+        <v>162020</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211111</v>
+        <v>208576</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3194510966497823</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2852735194064028</v>
+        <v>0.2794702191887011</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3641495922064558</v>
+        <v>0.3597758125511854</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>341</v>
@@ -3870,19 +3870,19 @@
         <v>368581</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>335736</v>
+        <v>336149</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>402278</v>
+        <v>398364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3261497958496274</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.297085409011471</v>
+        <v>0.2974512854503141</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3559674149011997</v>
+        <v>0.3525039532707251</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>366977</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>344135</v>
+        <v>344218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>390041</v>
+        <v>390074</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6667939326135118</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6252903067339485</v>
+        <v>0.6254410848998203</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.708701442593259</v>
+        <v>0.7087619838734952</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>375</v>
@@ -3920,19 +3920,19 @@
         <v>394540</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>368627</v>
+        <v>371162</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>414354</v>
+        <v>417718</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6805489033502177</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6358504077935442</v>
+        <v>0.6402241874488148</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7147264805935972</v>
+        <v>0.720529780811299</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>712</v>
@@ -3941,19 +3941,19 @@
         <v>761517</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>727820</v>
+        <v>731734</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>794362</v>
+        <v>793949</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6738502041503727</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6440325850988003</v>
+        <v>0.647496046729275</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7029145909885289</v>
+        <v>0.7025487145496859</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>180672</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>157887</v>
+        <v>155033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>206676</v>
+        <v>204756</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2338392463769527</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2043483367083564</v>
+        <v>0.2006545708223602</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2674949113166712</v>
+        <v>0.2650101290202418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>185</v>
@@ -4066,19 +4066,19 @@
         <v>197551</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>173070</v>
+        <v>175138</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>223945</v>
+        <v>224785</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2252984761161367</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1973792284504186</v>
+        <v>0.1997373692471318</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2553997059684944</v>
+        <v>0.256357615643222</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>363</v>
@@ -4087,19 +4087,19 @@
         <v>378223</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>343455</v>
+        <v>345095</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>412256</v>
+        <v>411984</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2292990772820239</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2082204018279719</v>
+        <v>0.2092150443828187</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2499315904274032</v>
+        <v>0.2497665254640768</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>591963</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>565959</v>
+        <v>567879</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>614748</v>
+        <v>617602</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7661607536230474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7325050886833285</v>
+        <v>0.7349898709797575</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7956516632916435</v>
+        <v>0.7993454291776398</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>628</v>
@@ -4137,19 +4137,19 @@
         <v>679290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>652896</v>
+        <v>652056</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>703771</v>
+        <v>701703</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7747015238838633</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7446002940315055</v>
+        <v>0.7436423843567781</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8026207715495814</v>
+        <v>0.8002626307528683</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1218</v>
@@ -4158,19 +4158,19 @@
         <v>1271253</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1237220</v>
+        <v>1237492</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1306021</v>
+        <v>1304381</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7707009227179761</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7500684095725966</v>
+        <v>0.7502334745359232</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.791779598172028</v>
+        <v>0.7907849556171813</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>734604</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>687821</v>
+        <v>689263</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>785836</v>
+        <v>783636</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.275717676702138</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2581588586487161</v>
+        <v>0.2587000698777859</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2949465603126752</v>
+        <v>0.2941207202796064</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>730</v>
@@ -4283,19 +4283,19 @@
         <v>753907</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>706318</v>
+        <v>703141</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>802908</v>
+        <v>799332</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2629315097196918</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2463343077326615</v>
+        <v>0.2452263651303141</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.280020733564917</v>
+        <v>0.2787736208645111</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1421</v>
@@ -4304,19 +4304,19 @@
         <v>1488511</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1418530</v>
+        <v>1426677</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1556025</v>
+        <v>1556251</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2690900013484158</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.256438865050747</v>
+        <v>0.2579118168643699</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.281295052198706</v>
+        <v>0.2813359264725799</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>1929729</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1878497</v>
+        <v>1880697</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1976512</v>
+        <v>1975070</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.724282323297862</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7050534396873248</v>
+        <v>0.7058792797203935</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7418411413512839</v>
+        <v>0.7412999301222138</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1997</v>
@@ -4354,19 +4354,19 @@
         <v>2113408</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2064407</v>
+        <v>2067983</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2160997</v>
+        <v>2164174</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7370684902803082</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.719979266435083</v>
+        <v>0.7212263791354889</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7536656922673384</v>
+        <v>0.7547736348696858</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3836</v>
@@ -4375,19 +4375,19 @@
         <v>4043137</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3975623</v>
+        <v>3975397</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4113118</v>
+        <v>4104971</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7309099986515842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.718704947801294</v>
+        <v>0.7186640735274201</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.743561134949253</v>
+        <v>0.7420881831356303</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>151784</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>128193</v>
+        <v>129205</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>179303</v>
+        <v>179923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2301386906700185</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1943694148461428</v>
+        <v>0.1959040896163455</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2718637550466739</v>
+        <v>0.2728050866341797</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -4740,19 +4740,19 @@
         <v>127243</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>111273</v>
+        <v>112166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>145971</v>
+        <v>148532</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1803628305797026</v>
+        <v>0.1803628305797027</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1577265671162408</v>
+        <v>0.1589925148908373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2069102738927758</v>
+        <v>0.2105404354693924</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>347</v>
@@ -4761,19 +4761,19 @@
         <v>279026</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>246850</v>
+        <v>252346</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>312681</v>
+        <v>313130</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.204412972119709</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1808405806368223</v>
+        <v>0.1848670244364438</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2290684033725515</v>
+        <v>0.2293974943105076</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>507747</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>480228</v>
+        <v>479608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>531338</v>
+        <v>530326</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7698613093299816</v>
+        <v>0.7698613093299814</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.728136244953326</v>
+        <v>0.7271949133658202</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8056305851538572</v>
+        <v>0.8040959103836546</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>987</v>
@@ -4811,19 +4811,19 @@
         <v>578238</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>559510</v>
+        <v>556949</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>594208</v>
+        <v>593315</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8196371694202974</v>
+        <v>0.8196371694202973</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7930897261072237</v>
+        <v>0.7894595645306076</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8422734328837591</v>
+        <v>0.8410074851091628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1545</v>
@@ -4832,19 +4832,19 @@
         <v>1085986</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1052331</v>
+        <v>1051882</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1118162</v>
+        <v>1112666</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.795587027880291</v>
+        <v>0.7955870278802909</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7709315966274485</v>
+        <v>0.7706025056894924</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8191594193631775</v>
+        <v>0.8151329755635561</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>168371</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>144578</v>
+        <v>143590</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>199594</v>
+        <v>198540</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1656899145927799</v>
+        <v>0.16568991459278</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1422763423536686</v>
+        <v>0.1413039930795344</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.19641628982816</v>
+        <v>0.1953790746941481</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>267</v>
@@ -4957,19 +4957,19 @@
         <v>184125</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>163083</v>
+        <v>163529</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>204919</v>
+        <v>206208</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.175728477680204</v>
+        <v>0.1757284776802039</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1556459093946436</v>
+        <v>0.1560710552430339</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1955737424902448</v>
+        <v>0.1968036758744787</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>416</v>
@@ -4978,19 +4978,19 @@
         <v>352496</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320085</v>
+        <v>317122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>388913</v>
+        <v>387987</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1707860528769294</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1550825031797205</v>
+        <v>0.1536470838180667</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1884301041904537</v>
+        <v>0.1879816074852914</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>847809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>816586</v>
+        <v>817640</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>871602</v>
+        <v>872590</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.83431008540722</v>
+        <v>0.8343100854072202</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.80358371017184</v>
+        <v>0.8046209253058517</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8577236576463315</v>
+        <v>0.8586960069204655</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1219</v>
@@ -5028,19 +5028,19 @@
         <v>863659</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>842865</v>
+        <v>841576</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>884701</v>
+        <v>884255</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8242715223197961</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8044262575097552</v>
+        <v>0.8031963241255211</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8443540906053564</v>
+        <v>0.8439289447569661</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2006</v>
@@ -5049,19 +5049,19 @@
         <v>1711468</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1675051</v>
+        <v>1675977</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1743879</v>
+        <v>1746842</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8292139471230707</v>
+        <v>0.8292139471230706</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8115698958095461</v>
+        <v>0.8120183925147086</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8449174968202795</v>
+        <v>0.8463529161819332</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>184837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>156550</v>
+        <v>157826</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>213358</v>
+        <v>215227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2388053467665543</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2022593590915604</v>
+        <v>0.2039068745586053</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2756533457146567</v>
+        <v>0.2780677153211626</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>220</v>
@@ -5174,19 +5174,19 @@
         <v>180170</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>157408</v>
+        <v>159272</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>203012</v>
+        <v>205137</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2265306340151595</v>
+        <v>0.2265306340151596</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1979110490077633</v>
+        <v>0.2002555988716956</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2552504920473956</v>
+        <v>0.2579221570680736</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>364</v>
@@ -5195,19 +5195,19 @@
         <v>365007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>330511</v>
+        <v>333440</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>400205</v>
+        <v>405156</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.23258454368837</v>
+        <v>0.2325845436883699</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2106034443769846</v>
+        <v>0.2124699307689683</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2550124879279801</v>
+        <v>0.2581676536300529</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>589171</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>560650</v>
+        <v>558781</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>617458</v>
+        <v>616182</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.7611946532334456</v>
+        <v>0.7611946532334457</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7243466542853432</v>
+        <v>0.7219322846788374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7977406409084395</v>
+        <v>0.7960931254413947</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>804</v>
@@ -5245,19 +5245,19 @@
         <v>615175</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>592333</v>
+        <v>590208</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>637937</v>
+        <v>636073</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7734693659848405</v>
+        <v>0.7734693659848403</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7447495079526044</v>
+        <v>0.7420778429319265</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8020889509922365</v>
+        <v>0.7997444011283044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1315</v>
@@ -5266,19 +5266,19 @@
         <v>1204346</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1169148</v>
+        <v>1164197</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1238842</v>
+        <v>1235913</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7674154563116302</v>
+        <v>0.7674154563116301</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7449875120720199</v>
+        <v>0.7418323463699472</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7893965556230153</v>
+        <v>0.7875300692310317</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>144312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>122191</v>
+        <v>119319</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>169741</v>
+        <v>171312</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1524273362280099</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1290623184594915</v>
+        <v>0.1260285968964339</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1792857754192381</v>
+        <v>0.1809452840644647</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>245</v>
@@ -5391,19 +5391,19 @@
         <v>172549</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>151577</v>
+        <v>151573</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>193206</v>
+        <v>197316</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1603360184083444</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1408486516385676</v>
+        <v>0.1408448293405243</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1795311665516666</v>
+        <v>0.1833505955746815</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>383</v>
@@ -5412,19 +5412,19 @@
         <v>316861</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>286789</v>
+        <v>286754</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>354019</v>
+        <v>352086</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.1566346418892708</v>
+        <v>0.1566346418892709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.141769318017241</v>
+        <v>0.1417518360363683</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.175003089759595</v>
+        <v>0.174047752268475</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>802448</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>777019</v>
+        <v>775448</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>824569</v>
+        <v>827441</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.84757266377199</v>
+        <v>0.8475726637719903</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8207142245807617</v>
+        <v>0.8190547159355352</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8709376815405085</v>
+        <v>0.873971403103566</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1265</v>
@@ -5462,19 +5462,19 @@
         <v>903621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>882964</v>
+        <v>878854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>924593</v>
+        <v>924597</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8396639815916555</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8204688334483335</v>
+        <v>0.8166494044253185</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8591513483614325</v>
+        <v>0.8591551706594756</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2092</v>
@@ -5483,19 +5483,19 @@
         <v>1706069</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1668911</v>
+        <v>1670844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1736141</v>
+        <v>1736176</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8433653581107291</v>
+        <v>0.8433653581107292</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8249969102404058</v>
+        <v>0.825952247731525</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8582306819827591</v>
+        <v>0.8582481639636318</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>649304</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>601502</v>
+        <v>598029</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>706796</v>
+        <v>706061</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1911696523671299</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1770956407395711</v>
+        <v>0.1760733305823292</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2080966291172566</v>
+        <v>0.2078803591585509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>941</v>
@@ -5608,19 +5608,19 @@
         <v>664087</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>622876</v>
+        <v>627216</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>704013</v>
+        <v>709353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1832074983763039</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1718381972868926</v>
+        <v>0.1730357289129592</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1942222947800154</v>
+        <v>0.1956955172622182</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1510</v>
@@ -5629,19 +5629,19 @@
         <v>1313391</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1254155</v>
+        <v>1246986</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1392551</v>
+        <v>1377317</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1870591279483034</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1786225381199262</v>
+        <v>0.1776015480080458</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1983335651649146</v>
+        <v>0.1961638509567183</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>2747175</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2689683</v>
+        <v>2690418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2794977</v>
+        <v>2798450</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8088303476328701</v>
+        <v>0.8088303476328702</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7919033708827434</v>
+        <v>0.7921196408414497</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8229043592604288</v>
+        <v>0.823926669417671</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4275</v>
@@ -5679,19 +5679,19 @@
         <v>2960693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2920767</v>
+        <v>2915427</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3001904</v>
+        <v>2997564</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8167925016236961</v>
+        <v>0.816792501623696</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8057777052199844</v>
+        <v>0.8043044827377815</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8281618027131076</v>
+        <v>0.8269642710870403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6958</v>
@@ -5700,19 +5700,19 @@
         <v>5707868</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5628708</v>
+        <v>5643942</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5767104</v>
+        <v>5774273</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8129408720516967</v>
+        <v>0.8129408720516966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8016664348350853</v>
+        <v>0.8038361490432818</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8213774618800735</v>
+        <v>0.8223984519919543</v>
       </c>
     </row>
     <row r="18">
